--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">category </t>
   </si>
   <si>
-    <t>fruits</t>
-  </si>
-  <si>
     <t>20% discount for fruits</t>
   </si>
   <si>
@@ -126,7 +123,10 @@
     <t>rose123</t>
   </si>
   <si>
-    <t>Red tomato4</t>
+    <t>Red tomato8</t>
+  </si>
+  <si>
+    <t>fruits1</t>
   </si>
 </sst>
 </file>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -704,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -749,17 +749,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -807,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -841,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>5565125496</v>
@@ -901,16 +901,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="36.75" x14ac:dyDescent="0.25">
@@ -921,16 +921,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -962,19 +962,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>9562453253</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2">
         <v>3</v>
